--- a/backend/trade_log.xlsx
+++ b/backend/trade_log.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,6 +676,366 @@
         <v>91.52118965331903</v>
       </c>
       <c r="H7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10/14</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>138.5500030517578</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Red Zone: Overbought - Potential Sell Opportunity</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>95.67046015279995</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>10/14</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>138.5500030517578</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Red Zone: Overbought - Potential Sell Opportunity</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>95.67046015279995</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10/14</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>138.5500030517578</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Red Zone: Overbought - Potential Sell Opportunity</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>95.67046015279995</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10/14</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>138.5500030517578</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Red Zone: Overbought - Potential Sell Opportunity</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>95.67046015279995</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10/14</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>138.5099945068359</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Red Zone: Overbought - Potential Sell Opportunity</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>95.52735445982592</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10/14</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>138.4149932861328</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Red Zone: Overbought - Potential Sell Opportunity</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>95.1921103473401</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>10/14</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>138.4700012207031</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Red Zone: Overbought - Potential Sell Opportunity</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>95.35156028249338</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>10/14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>138.7400054931641</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Red Zone: Overbought - Potential Sell Opportunity</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>96.15411247957749</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>10/14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>138.6938934326172</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Red Zone: Overbought - Potential Sell Opportunity</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>96.30289498949165</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>10/14</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>SPY</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>584.375</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Red Zone: Overbought - Potential Sell Opportunity</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>98.63182903849911</v>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -739,39 +1099,39 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184.8899993896484</v>
+        <v>187.8500061035156</v>
       </c>
       <c r="C2" t="n">
-        <v>81.56281781023149</v>
+        <v>53.15123940272735</v>
       </c>
       <c r="D2" t="n">
-        <v>89.69327857991891</v>
+        <v>50.71973865248976</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Red Zone: Overbought - Potential Sell Opportunity</t>
+          <t>Neutral Zone: Hold Phase</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Consider Selling</t>
+          <t>Hold</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>QQQ</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>473.239990234375</v>
+        <v>138.6938934326172</v>
       </c>
       <c r="C3" t="n">
-        <v>84.22997988753438</v>
+        <v>96.30289498949165</v>
       </c>
       <c r="D3" t="n">
-        <v>80.33955702365728</v>
+        <v>96.87048171876938</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -787,43 +1147,43 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.90999984741211</v>
+        <v>584.375</v>
       </c>
       <c r="C4" t="n">
-        <v>66.48197265253502</v>
+        <v>98.63182903849911</v>
       </c>
       <c r="D4" t="n">
-        <v>40.62787511183436</v>
+        <v>93.65021634471718</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Neutral Zone: Hold Phase</t>
+          <t>Red Zone: Overbought - Potential Sell Opportunity</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Hold</t>
+          <t>Consider Selling</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IYR</t>
+          <t>QQQ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>103.6100006103516</v>
+        <v>498.2525024414062</v>
       </c>
       <c r="C5" t="n">
-        <v>94.52991831981126</v>
+        <v>97.34028464095196</v>
       </c>
       <c r="D5" t="n">
-        <v>97.56996080702682</v>
+        <v>93.27468681738713</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -885,14 +1245,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09/16</t>
+          <t>10/14</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>QQQ</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -902,14 +1262,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09/16</t>
+          <t>10/14</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -919,24 +1279,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09/16</t>
+          <t>10/14</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IYR</t>
+          <t>QQQ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09/16</t>
+          <t>10/14</t>
         </is>
       </c>
     </row>

--- a/backend/trade_log.xlsx
+++ b/backend/trade_log.xlsx
@@ -1052,7 +1052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1191,6 +1191,32 @@
         </is>
       </c>
       <c r="F5" t="inlineStr">
+        <is>
+          <t>Consider Selling</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>44.86000061035156</v>
+      </c>
+      <c r="C6" t="n">
+        <v>96.53180720250087</v>
+      </c>
+      <c r="D6" t="n">
+        <v>83.23100457357006</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Red Zone: Overbought - Potential Sell Opportunity</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Consider Selling</t>
         </is>
@@ -1207,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1300,6 +1326,23 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PLTR</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10/27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/trade_log.xlsx
+++ b/backend/trade_log.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1036,6 +1036,186 @@
         <v>98.63182903849911</v>
       </c>
       <c r="H17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>10/27</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>6.78000020980835</v>
+      </c>
+      <c r="E18" t="n">
+        <v>36.873155</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Green Zone: Oversold - Potential Buy Opportunity</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>14.28577510673481</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>10/27</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>64.52999877929688</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Red Zone: Overbought - Potential Sell Opportunity</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>84.00902468298911</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>10/27</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>6.78000020980835</v>
+      </c>
+      <c r="E20" t="n">
+        <v>36.873155</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Green Zone: Oversold - Potential Buy Opportunity</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>14.28577510673481</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10/27</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>64.52999877929688</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Red Zone: Overbought - Potential Sell Opportunity</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>84.00902468298911</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>12/05</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>VOO</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>557.7100219726562</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Red Zone: Overbought - Potential Sell Opportunity</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>92.49800005925751</v>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1052,7 +1232,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1095,17 +1275,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.8500061035156</v>
+        <v>142.3587951660156</v>
       </c>
       <c r="C2" t="n">
-        <v>53.15123940272735</v>
+        <v>49.97677538103569</v>
       </c>
       <c r="D2" t="n">
-        <v>50.71973865248976</v>
+        <v>58.70095999915108</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1121,104 +1301,52 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>TGTX</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.6938934326172</v>
+        <v>33.65000152587891</v>
       </c>
       <c r="C3" t="n">
-        <v>96.30289498949165</v>
+        <v>61.33334997928503</v>
       </c>
       <c r="D3" t="n">
-        <v>96.87048171876938</v>
+        <v>61.2121273772885</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Red Zone: Overbought - Potential Sell Opportunity</t>
+          <t>Neutral Zone: Hold Phase</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Consider Selling</t>
+          <t>Hold</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SPY</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.375</v>
+        <v>52.02999877929688</v>
       </c>
       <c r="C4" t="n">
-        <v>98.63182903849911</v>
+        <v>5.847867114614983</v>
       </c>
       <c r="D4" t="n">
-        <v>93.65021634471718</v>
+        <v>16.61200900324253</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Red Zone: Overbought - Potential Sell Opportunity</t>
+          <t>Green Zone: Oversold - Potential Buy Opportunity</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Consider Selling</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>QQQ</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>498.2525024414062</v>
-      </c>
-      <c r="C5" t="n">
-        <v>97.34028464095196</v>
-      </c>
-      <c r="D5" t="n">
-        <v>93.27468681738713</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Red Zone: Overbought - Potential Sell Opportunity</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Consider Selling</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>PLTR</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>44.86000061035156</v>
-      </c>
-      <c r="C6" t="n">
-        <v>96.53180720250087</v>
-      </c>
-      <c r="D6" t="n">
-        <v>83.23100457357006</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Red Zone: Overbought - Potential Sell Opportunity</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Consider Selling</t>
+          <t>Consider Buying</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1261,7 +1389,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1271,31 +1399,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10/14</t>
+          <t>12/03</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>TGTX</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10/14</t>
+          <t>12/02</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SPY</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1305,41 +1433,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10/14</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>QQQ</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10/14</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>PLTR</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10/27</t>
+          <t>11/29</t>
         </is>
       </c>
     </row>
